--- a/STOXX_geo_industry_weights.xlsx
+++ b/STOXX_geo_industry_weights.xlsx
@@ -233,6 +233,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-CA94-42EF-BAA2-5C2146668289}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -248,6 +253,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-CA94-42EF-BAA2-5C2146668289}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -263,6 +273,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-CA94-42EF-BAA2-5C2146668289}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -278,6 +293,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-CA94-42EF-BAA2-5C2146668289}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -293,6 +313,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-CA94-42EF-BAA2-5C2146668289}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -308,6 +333,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-CA94-42EF-BAA2-5C2146668289}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -325,6 +355,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-CA94-42EF-BAA2-5C2146668289}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -342,6 +377,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-CA94-42EF-BAA2-5C2146668289}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -359,6 +399,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-CA94-42EF-BAA2-5C2146668289}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
@@ -376,6 +421,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-CA94-42EF-BAA2-5C2146668289}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="10"/>
@@ -393,6 +443,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000015-CA94-42EF-BAA2-5C2146668289}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -1520,7 +1575,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AD24" sqref="AD24"/>
+      <selection activeCell="AF11" sqref="AF11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
